--- a/medicine/Enfance/Robert_Lawrence_Stine/Robert_Lawrence_Stine.xlsx
+++ b/medicine/Enfance/Robert_Lawrence_Stine/Robert_Lawrence_Stine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Lawrence Stine, connu sous le nom de R. L. Stine, né le 8 octobre 1943 à Columbus en Ohio, est un écrivain américain. Il est l'auteur de nombreuses histoires d'horreur « grand public », notamment à travers les collections Frissons et Chair de poule. Il se décrit souvent comme le Stephen King des enfants.
 </t>
@@ -513,25 +525,100 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-R.L. Stine est né en 1943 à Colombus (Ohio, États-Unis)[2], il est le fils de Lewis Stine et d'Anne Feinstein Stine[3],[4]. Il grandit à Bexley avec son frère cadet et sa sœur[5].
-La famille Stine vit dans la pauvreté, ainsi, il doit porter les vêtements usagés de son cousin pour aller en classe[6].
-Alors qu'il a 9 ans, il découvre une machine à écrire dans son grenier et entame l'écriture de son premier recueil d'histoires drôles[7].
-Pendant son enfance et son adolescence il lit Edgar Allan Poe, les thrillers de Ray Bradbury, les bandes dessinées comme Tales from The Crypt et The Vault of Horror et écoute assidûment les émissions de science-fiction à la radio[8].
-En 1965 il obtient le Bachelor of Arts (licence) à l'université d'état de l'Ohio[4]. Pendant ses études universitaires, il crée le magazine humoristique The Sundial, édité par l'université de l'Ohio[8].
-Carrière
-Il part pour New York en 1967 dans l'espoir de devenir écrivain. Dans un premier temps, il écrit plusieurs livres humoristiques pour enfants, publiés sous le nom de Jovial Bob Stine, et il crée un magazine humoristique pour la jeunesse, Bananas, édité par Scholastic Corporation et dont il sera le rédacteur en chef durant dix ans[9]. Son premier livre pour enfants a pour titre How to be funny / Comment être drôle[10].
-En 1968, il rencontre sa future épouse, Jane Waldhorn, avec qui il fonde les éditions Parachute Publishing (en)[9]. Il change alors de voie et décide d'écrire des livres d'épouvante pour les enfants.
-En 1986, il écrit sa première histoire d'horreur pour adolescents, Blind Date, qui devient immédiatement un best seller, suivi d'autres succès comme Beach House, The Babysitter et Hit and Run[11].
-En 1989, il crée la série Fear Street. Elle comportera 51 titres et totalisera en 2014 80 millions d'exemplaires vendus[12],[13].
-En 1992, il crée la série Goosebumps / Chair de poule. Les titres, publiés par les éditions Parachute Press, seront traduits et diffusés en France par les éditions Bayard Presse[14].
-Goosebumps / Chair de poule est la série pour enfants et adolescents la plus vendue au monde, totalisant plus de 400 millions d'exemplaires vendus[15].
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">R.L. Stine est né en 1943 à Colombus (Ohio, États-Unis), il est le fils de Lewis Stine et d'Anne Feinstein Stine,. Il grandit à Bexley avec son frère cadet et sa sœur.
+La famille Stine vit dans la pauvreté, ainsi, il doit porter les vêtements usagés de son cousin pour aller en classe.
+Alors qu'il a 9 ans, il découvre une machine à écrire dans son grenier et entame l'écriture de son premier recueil d'histoires drôles.
+Pendant son enfance et son adolescence il lit Edgar Allan Poe, les thrillers de Ray Bradbury, les bandes dessinées comme Tales from The Crypt et The Vault of Horror et écoute assidûment les émissions de science-fiction à la radio.
+En 1965 il obtient le Bachelor of Arts (licence) à l'université d'état de l'Ohio. Pendant ses études universitaires, il crée le magazine humoristique The Sundial, édité par l'université de l'Ohio.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Robert_Lawrence_Stine</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_Lawrence_Stine</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il part pour New York en 1967 dans l'espoir de devenir écrivain. Dans un premier temps, il écrit plusieurs livres humoristiques pour enfants, publiés sous le nom de Jovial Bob Stine, et il crée un magazine humoristique pour la jeunesse, Bananas, édité par Scholastic Corporation et dont il sera le rédacteur en chef durant dix ans. Son premier livre pour enfants a pour titre How to be funny / Comment être drôle.
+En 1968, il rencontre sa future épouse, Jane Waldhorn, avec qui il fonde les éditions Parachute Publishing (en). Il change alors de voie et décide d'écrire des livres d'épouvante pour les enfants.
+En 1986, il écrit sa première histoire d'horreur pour adolescents, Blind Date, qui devient immédiatement un best seller, suivi d'autres succès comme Beach House, The Babysitter et Hit and Run.
+En 1989, il crée la série Fear Street. Elle comportera 51 titres et totalisera en 2014 80 millions d'exemplaires vendus,.
+En 1992, il crée la série Goosebumps / Chair de poule. Les titres, publiés par les éditions Parachute Press, seront traduits et diffusés en France par les éditions Bayard Presse.
+Goosebumps / Chair de poule est la série pour enfants et adolescents la plus vendue au monde, totalisant plus de 400 millions d'exemplaires vendus.
 En 1999, il voyage en Angleterre et y reste trois ans, rencontrant d'autres écrivains anglais.
-En 2007, Stephen King dit à son sujet qu'il est perhaps the best-selling children’s author of the 20th century / probablement l’auteur pour enfants le plus vendu du XXe siècle, et si on le compare à d'autres best-sellers comme les sagas Harry Potter de J. K. Rowling et The Hunger Games de Suzanne Collins, Stine a de loin écrit le plus grand nombre de livres[16]. 
+En 2007, Stephen King dit à son sujet qu'il est perhaps the best-selling children’s author of the 20th century / probablement l’auteur pour enfants le plus vendu du XXe siècle, et si on le compare à d'autres best-sellers comme les sagas Harry Potter de J. K. Rowling et The Hunger Games de Suzanne Collins, Stine a de loin écrit le plus grand nombre de livres. 
 En 2020, il publie une série de livres sur l'univers des Crados.
-Vie privée
-Le 22 juin 1969, il épouse Jane Waldhorn, le couple a un fils Matthew Daniel né en 1980[17].
-R. L. Stine habite dans l'Upper West Side, à Manhattan, avec son épouse, Jane, et leur épagneul King Charles, Minnie[15].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Robert_Lawrence_Stine</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Robert_Lawrence_Stine</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 22 juin 1969, il épouse Jane Waldhorn, le couple a un fils Matthew Daniel né en 1980.
+R. L. Stine habite dans l'Upper West Side, à Manhattan, avec son épouse, Jane, et leur épagneul King Charles, Minnie.
 </t>
         </is>
       </c>
